--- a/data/datasets/datasets_excel/sanity_checks.xlsx
+++ b/data/datasets/datasets_excel/sanity_checks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,16 +536,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5521563</v>
+        <v>5521551</v>
       </c>
       <c r="B5" t="n">
-        <v>4.899516666666667</v>
+        <v>5.419700000000001</v>
       </c>
       <c r="C5" t="n">
         <v>-3</v>
       </c>
       <c r="D5" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -559,16 +559,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5521551</v>
+        <v>5521552</v>
       </c>
       <c r="B6" t="n">
-        <v>5.419700000000001</v>
+        <v>9.734766666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -577,21 +577,21 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5521552</v>
+        <v>5521568</v>
       </c>
       <c r="B7" t="n">
-        <v>9.734766666666667</v>
+        <v>5.086666666666667</v>
       </c>
       <c r="C7" t="n">
         <v>-2</v>
       </c>
       <c r="D7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -600,21 +600,21 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5521547</v>
+        <v>5521573</v>
       </c>
       <c r="B8" t="n">
-        <v>9.101066666666666</v>
+        <v>6.56425</v>
       </c>
       <c r="C8" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -628,16 +628,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>5521561</v>
+        <v>5521577</v>
       </c>
       <c r="B9" t="n">
-        <v>8.07755</v>
+        <v>33.91086666666667</v>
       </c>
       <c r="C9" t="n">
         <v>-3</v>
       </c>
       <c r="D9" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>5521566</v>
+        <v>5521582</v>
       </c>
       <c r="B10" t="n">
-        <v>8.059566666666667</v>
+        <v>8.863566666666665</v>
       </c>
       <c r="C10" t="n">
         <v>-3</v>
@@ -674,16 +674,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5521554</v>
+        <v>5521587</v>
       </c>
       <c r="B11" t="n">
-        <v>7.5582</v>
+        <v>7.41795</v>
       </c>
       <c r="C11" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -697,16 +697,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>5521548</v>
+        <v>5521584</v>
       </c>
       <c r="B12" t="n">
-        <v>13.86451666666667</v>
+        <v>4.6016</v>
       </c>
       <c r="C12" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -720,13 +720,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>5521570</v>
+        <v>5521592</v>
       </c>
       <c r="B13" t="n">
-        <v>16.48346666666667</v>
+        <v>6.337766666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D13" t="n">
         <v>-3</v>
@@ -743,16 +743,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>5521560</v>
+        <v>5521591</v>
       </c>
       <c r="B14" t="n">
-        <v>233.7886166666667</v>
+        <v>7.592833333333333</v>
       </c>
       <c r="C14" t="n">
         <v>-3</v>
       </c>
       <c r="D14" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -766,16 +766,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>5521568</v>
+        <v>5521597</v>
       </c>
       <c r="B15" t="n">
-        <v>5.086666666666667</v>
+        <v>4.100683333333333</v>
       </c>
       <c r="C15" t="n">
         <v>-2</v>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -789,16 +789,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>5521573</v>
+        <v>5521601</v>
       </c>
       <c r="B16" t="n">
-        <v>6.56425</v>
+        <v>2.837</v>
       </c>
       <c r="C16" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -812,16 +812,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>5521577</v>
+        <v>5521600</v>
       </c>
       <c r="B17" t="n">
-        <v>33.91086666666667</v>
+        <v>3.393683333333334</v>
       </c>
       <c r="C17" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -835,16 +835,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>5521578</v>
+        <v>5521608</v>
       </c>
       <c r="B18" t="n">
-        <v>8.598833333333333</v>
+        <v>4.578166666666666</v>
       </c>
       <c r="C18" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -858,16 +858,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>5521585</v>
+        <v>5521604</v>
       </c>
       <c r="B19" t="n">
-        <v>11.27953333333333</v>
+        <v>6.696383333333333</v>
       </c>
       <c r="C19" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D19" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>5521582</v>
+        <v>5521605</v>
       </c>
       <c r="B20" t="n">
-        <v>8.863566666666665</v>
+        <v>4.628266666666667</v>
       </c>
       <c r="C20" t="n">
         <v>-3</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>5521587</v>
+        <v>5521606</v>
       </c>
       <c r="B21" t="n">
-        <v>7.41795</v>
+        <v>11.1617</v>
       </c>
       <c r="C21" t="n">
         <v>-3</v>
@@ -927,16 +927,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>5521584</v>
+        <v>5521618</v>
       </c>
       <c r="B22" t="n">
-        <v>4.6016</v>
+        <v>6.40225</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>5521592</v>
+        <v>5521596</v>
       </c>
       <c r="B23" t="n">
-        <v>6.337766666666667</v>
+        <v>11.4902</v>
       </c>
       <c r="C23" t="n">
         <v>-3</v>
@@ -962,7 +962,7 @@
         <v>-3</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -973,16 +973,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>5521591</v>
+        <v>5521617</v>
       </c>
       <c r="B24" t="n">
-        <v>7.592833333333333</v>
+        <v>5.46565</v>
       </c>
       <c r="C24" t="n">
         <v>-3</v>
       </c>
       <c r="D24" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -996,16 +996,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>5521597</v>
+        <v>5521624</v>
       </c>
       <c r="B25" t="n">
-        <v>4.100683333333333</v>
+        <v>15.26895</v>
       </c>
       <c r="C25" t="n">
         <v>-2</v>
       </c>
       <c r="D25" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>5521598</v>
+        <v>5521623</v>
       </c>
       <c r="B26" t="n">
-        <v>4.100716666666667</v>
+        <v>9.650366666666667</v>
       </c>
       <c r="C26" t="n">
         <v>-3</v>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>5521603</v>
+        <v>5521630</v>
       </c>
       <c r="B27" t="n">
-        <v>5.303533333333333</v>
+        <v>8.575816666666666</v>
       </c>
       <c r="C27" t="n">
         <v>-2</v>
       </c>
       <c r="D27" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>5521601</v>
+        <v>5521583</v>
       </c>
       <c r="B28" t="n">
-        <v>2.837</v>
+        <v>11.8988</v>
       </c>
       <c r="C28" t="n">
         <v>-2</v>
@@ -1088,16 +1088,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>5521600</v>
+        <v>5521635</v>
       </c>
       <c r="B29" t="n">
-        <v>3.393683333333334</v>
+        <v>7.268683333333333</v>
       </c>
       <c r="C29" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D29" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>5521608</v>
+        <v>5521602</v>
       </c>
       <c r="B30" t="n">
-        <v>4.578166666666666</v>
+        <v>7.895516666666667</v>
       </c>
       <c r="C30" t="n">
         <v>-3</v>
       </c>
       <c r="D30" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1134,16 +1134,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>5521604</v>
+        <v>5521621</v>
       </c>
       <c r="B31" t="n">
-        <v>6.696383333333333</v>
+        <v>10.68546666666667</v>
       </c>
       <c r="C31" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>5521605</v>
+        <v>5521610</v>
       </c>
       <c r="B32" t="n">
-        <v>4.628266666666667</v>
+        <v>6.06535</v>
       </c>
       <c r="C32" t="n">
         <v>-3</v>
       </c>
       <c r="D32" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1180,16 +1180,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>5521606</v>
+        <v>5521593</v>
       </c>
       <c r="B33" t="n">
-        <v>11.1617</v>
+        <v>5.517533333333334</v>
       </c>
       <c r="C33" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D33" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -1203,16 +1203,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>5521618</v>
+        <v>5522038</v>
       </c>
       <c r="B34" t="n">
-        <v>6.40225</v>
+        <v>9.605183333333335</v>
       </c>
       <c r="C34" t="n">
         <v>-3</v>
       </c>
       <c r="D34" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -1226,19 +1226,19 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>5521596</v>
+        <v>5522048</v>
       </c>
       <c r="B35" t="n">
-        <v>11.4902</v>
+        <v>8.436400000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-3</v>
       </c>
       <c r="D35" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1249,16 +1249,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>5521617</v>
+        <v>5522396</v>
       </c>
       <c r="B36" t="n">
-        <v>5.46565</v>
+        <v>5.47895</v>
       </c>
       <c r="C36" t="n">
         <v>-3</v>
       </c>
       <c r="D36" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -1272,16 +1272,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>5521626</v>
+        <v>5522400</v>
       </c>
       <c r="B37" t="n">
-        <v>6.651899999999999</v>
+        <v>7.686216666666667</v>
       </c>
       <c r="C37" t="n">
         <v>-3</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -1295,16 +1295,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>5521624</v>
+        <v>5569500</v>
       </c>
       <c r="B38" t="n">
-        <v>15.26895</v>
+        <v>5.028266666666667</v>
       </c>
       <c r="C38" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D38" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1318,16 +1318,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>5521623</v>
+        <v>5569503</v>
       </c>
       <c r="B39" t="n">
-        <v>9.650366666666667</v>
+        <v>4.88535</v>
       </c>
       <c r="C39" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D39" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1341,16 +1341,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>5521630</v>
+        <v>5569507</v>
       </c>
       <c r="B40" t="n">
-        <v>8.575816666666666</v>
+        <v>7.4129</v>
       </c>
       <c r="C40" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D40" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1364,16 +1364,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>5521583</v>
+        <v>5569508</v>
       </c>
       <c r="B41" t="n">
-        <v>11.8988</v>
+        <v>9.118116666666667</v>
       </c>
       <c r="C41" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D41" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -1387,16 +1387,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>5521635</v>
+        <v>5569505</v>
       </c>
       <c r="B42" t="n">
-        <v>7.268683333333333</v>
+        <v>6.4748</v>
       </c>
       <c r="C42" t="n">
         <v>-3</v>
       </c>
       <c r="D42" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1410,16 +1410,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>5521602</v>
+        <v>5569514</v>
       </c>
       <c r="B43" t="n">
-        <v>7.895516666666667</v>
+        <v>7.15285</v>
       </c>
       <c r="C43" t="n">
         <v>-3</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>5521621</v>
+        <v>5569518</v>
       </c>
       <c r="B44" t="n">
-        <v>10.68546666666667</v>
+        <v>7.88775</v>
       </c>
       <c r="C44" t="n">
         <v>-3</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -1456,16 +1456,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>5521610</v>
+        <v>5569521</v>
       </c>
       <c r="B45" t="n">
-        <v>6.06535</v>
+        <v>5.858549999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D45" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -1479,16 +1479,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>5521593</v>
+        <v>5569520</v>
       </c>
       <c r="B46" t="n">
-        <v>5.517533333333334</v>
+        <v>5.767033333333333</v>
       </c>
       <c r="C46" t="n">
         <v>-2</v>
       </c>
       <c r="D46" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -1502,19 +1502,19 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>5522038</v>
+        <v>5569510</v>
       </c>
       <c r="B47" t="n">
-        <v>9.605183333333335</v>
+        <v>8.086533333333334</v>
       </c>
       <c r="C47" t="n">
         <v>-3</v>
       </c>
       <c r="D47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E47" t="n">
         <v>3</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>5522033</v>
+        <v>5569523</v>
       </c>
       <c r="B48" t="n">
-        <v>9.277133333333333</v>
+        <v>7.893199999999999</v>
       </c>
       <c r="C48" t="n">
         <v>-3</v>
@@ -1548,13 +1548,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>5522048</v>
+        <v>5569528</v>
       </c>
       <c r="B49" t="n">
-        <v>8.436400000000001</v>
+        <v>4.138233333333334</v>
       </c>
       <c r="C49" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D49" t="n">
         <v>-1</v>
@@ -1571,16 +1571,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>5522396</v>
+        <v>5569530</v>
       </c>
       <c r="B50" t="n">
-        <v>5.47895</v>
+        <v>2.7151</v>
       </c>
       <c r="C50" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D50" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -1594,16 +1594,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>5522394</v>
+        <v>5569525</v>
       </c>
       <c r="B51" t="n">
-        <v>13.33505</v>
+        <v>7.0235</v>
       </c>
       <c r="C51" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D51" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>5522400</v>
+        <v>5569519</v>
       </c>
       <c r="B52" t="n">
-        <v>7.686216666666667</v>
+        <v>3.82155</v>
       </c>
       <c r="C52" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -1640,24 +1640,1174 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
+        <v>5569526</v>
+      </c>
+      <c r="B53" t="n">
+        <v>9.249533333333334</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>5569509</v>
+      </c>
+      <c r="B54" t="n">
+        <v>7.874816666666666</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>5569524</v>
+      </c>
+      <c r="B55" t="n">
+        <v>7.270016666666667</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>5569531</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4.54965</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>5569511</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5.089</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>5569539</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4.67465</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>5569535</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4.844166666666666</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>5569555</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2.7329</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>5569547</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4.4459</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>5569550</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6.744966666666667</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>5569553</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4.59595</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>5569556</v>
+      </c>
+      <c r="B64" t="n">
+        <v>9.738416666666666</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>5569551</v>
+      </c>
+      <c r="B65" t="n">
+        <v>7.1352</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>5569560</v>
+      </c>
+      <c r="B66" t="n">
+        <v>7.484933333333333</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>5569557</v>
+      </c>
+      <c r="B67" t="n">
+        <v>9.2584</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>5569572</v>
+      </c>
+      <c r="B68" t="n">
+        <v>14.40265</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>5569568</v>
+      </c>
+      <c r="B69" t="n">
+        <v>7.778499999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>5522394</v>
+      </c>
+      <c r="B70" t="n">
+        <v>13.33505</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>5522033</v>
+      </c>
+      <c r="B71" t="n">
+        <v>9.277133333333333</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>5521626</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6.651899999999999</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>5521603</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5.303533333333333</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>5521598</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4.100716666666667</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>5521585</v>
+      </c>
+      <c r="B75" t="n">
+        <v>11.27953333333333</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>5521578</v>
+      </c>
+      <c r="B76" t="n">
+        <v>8.598833333333333</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>5521560</v>
+      </c>
+      <c r="B77" t="n">
+        <v>233.7886166666667</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>5521570</v>
+      </c>
+      <c r="B78" t="n">
+        <v>16.48346666666667</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>5521548</v>
+      </c>
+      <c r="B79" t="n">
+        <v>13.86451666666667</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>5521554</v>
+      </c>
+      <c r="B80" t="n">
+        <v>7.5582</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>5521566</v>
+      </c>
+      <c r="B81" t="n">
+        <v>8.059566666666667</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>5521561</v>
+      </c>
+      <c r="B82" t="n">
+        <v>8.07755</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>5521547</v>
+      </c>
+      <c r="B83" t="n">
+        <v>9.101066666666666</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>5521563</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4.899516666666667</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
         <v>5522616</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B85" t="n">
         <v>12.02046666666667</v>
       </c>
-      <c r="C53" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D53" t="n">
+      <c r="C85" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D85" t="n">
         <v>3</v>
       </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>5569571</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6.6653</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>5569561</v>
+      </c>
+      <c r="B87" t="n">
+        <v>9.028650000000001</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>5569567</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6.777866666666667</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>5569565</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7.8777</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>5569586</v>
+      </c>
+      <c r="B90" t="n">
+        <v>12.3798</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>5569580</v>
+      </c>
+      <c r="B91" t="n">
+        <v>10.74558333333333</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>5569587</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6.734333333333334</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>5569578</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6.896633333333333</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>5569574</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7.921516666666666</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>5569592</v>
+      </c>
+      <c r="B95" t="n">
+        <v>9.228133333333334</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>5569590</v>
+      </c>
+      <c r="B96" t="n">
+        <v>8.093533333333333</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>5569591</v>
+      </c>
+      <c r="B97" t="n">
+        <v>17.31355</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>5569606</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7.873916666666667</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>5569576</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6.016566666666667</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>5569573</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5.906233333333334</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>5569678</v>
+      </c>
+      <c r="B101" t="n">
+        <v>9.558883333333334</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>5569701</v>
+      </c>
+      <c r="B102" t="n">
+        <v>8.902233333333333</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>5569715</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5.063333333333333</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
         <v>1</v>
       </c>
     </row>
